--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciano Xiquín\Documents\Laureano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F3CE6-5472-47C7-9F9C-38A3AD0468DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D0859-D6FB-43EC-92DF-669D5E102D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,19 +840,52 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,71 +900,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E19"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,96 +1534,96 @@
     <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="13"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="14"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="14"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
@@ -1662,23 +1662,23 @@
       <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,11 +1686,11 @@
       <c r="B15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1698,11 +1698,11 @@
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1714,9 +1714,9 @@
     <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31">
         <f>(B17*F17)</f>
@@ -1727,9 +1727,9 @@
     <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="26"/>
       <c r="G18" s="33">
         <f>(B18*F18)</f>
@@ -1740,9 +1740,9 @@
     <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="26"/>
       <c r="G19" s="33">
         <f t="shared" ref="G19:G40" si="0">(B19*F19)</f>
@@ -1753,9 +1753,9 @@
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="26"/>
       <c r="G20" s="33">
         <f t="shared" si="0"/>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="26"/>
       <c r="G21" s="33">
         <f t="shared" si="0"/>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="26"/>
       <c r="G22" s="33">
         <f t="shared" si="0"/>
@@ -1792,9 +1792,9 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="26"/>
       <c r="G23" s="33">
         <f t="shared" si="0"/>
@@ -1805,9 +1805,9 @@
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="76"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="50"/>
       <c r="G24" s="33">
         <f t="shared" si="0"/>
@@ -1818,9 +1818,9 @@
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="26"/>
       <c r="G25" s="33">
         <f>(B25*F25)</f>
@@ -1831,9 +1831,9 @@
     <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="26"/>
       <c r="G26" s="33">
         <f t="shared" si="0"/>
@@ -1844,9 +1844,9 @@
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33">
         <f t="shared" si="0"/>
@@ -1857,9 +1857,9 @@
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="26"/>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
@@ -1870,9 +1870,9 @@
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="26"/>
       <c r="G29" s="33">
         <f t="shared" si="0"/>
@@ -1883,9 +1883,9 @@
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="32"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="26"/>
       <c r="G30" s="33">
         <f t="shared" si="0"/>
@@ -1896,9 +1896,9 @@
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="26"/>
       <c r="G31" s="33">
         <f t="shared" si="0"/>
@@ -1909,9 +1909,9 @@
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="26"/>
       <c r="G32" s="33">
         <f t="shared" si="0"/>
@@ -1922,9 +1922,9 @@
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="26"/>
       <c r="G33" s="33">
         <f t="shared" si="0"/>
@@ -1935,9 +1935,9 @@
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="26"/>
       <c r="G34" s="33">
         <f t="shared" si="0"/>
@@ -1948,9 +1948,9 @@
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="26"/>
       <c r="G35" s="33">
         <f>(B35*F35)</f>
@@ -1961,9 +1961,9 @@
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="26"/>
       <c r="G36" s="47">
         <f t="shared" si="0"/>
@@ -1974,9 +1974,9 @@
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="46"/>
       <c r="G37" s="49">
         <f>(B37*F37)</f>
@@ -1989,9 +1989,9 @@
         <v>0</v>
       </c>
       <c r="B38" s="32"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="27"/>
       <c r="G38" s="48">
         <f>(B38*F38)</f>
@@ -2002,9 +2002,9 @@
     <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="35"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="28"/>
       <c r="G39" s="33">
         <f>(B39*F39)</f>
@@ -2015,9 +2015,9 @@
     <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="44"/>
       <c r="G40" s="33">
         <f t="shared" si="0"/>
@@ -2028,9 +2028,9 @@
     <row r="41" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="38"/>
       <c r="G41" s="39">
         <f>(B41*F41)</f>
@@ -2040,22 +2040,22 @@
     </row>
     <row r="42" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="25"/>
       <c r="G42" s="40"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="41" t="s">
         <v>12</v>
       </c>
@@ -2107,6 +2107,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B42:E42"/>
@@ -2123,30 +2147,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="72" r:id="rId1"/>
@@ -2200,88 +2200,88 @@
     <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="13"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="14"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="14"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="14"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
@@ -2320,23 +2320,23 @@
       <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2344,11 +2344,11 @@
       <c r="B15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,11 +2356,11 @@
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
@@ -2372,9 +2372,9 @@
     <row r="17" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31">
         <f>(B17*F17)</f>
@@ -2385,9 +2385,9 @@
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="26"/>
       <c r="G18" s="33">
         <f>(B18*F18)</f>
@@ -2401,9 +2401,9 @@
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="26"/>
       <c r="G19" s="33">
         <f t="shared" ref="G19:G38" si="0">(B19*F19)</f>
@@ -2414,9 +2414,9 @@
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="26"/>
       <c r="G20" s="33">
         <f t="shared" si="0"/>
@@ -2427,9 +2427,9 @@
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="26"/>
       <c r="G21" s="33">
         <f t="shared" si="0"/>
@@ -2440,9 +2440,9 @@
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="26"/>
       <c r="G22" s="33">
         <f t="shared" si="0"/>
@@ -2453,9 +2453,9 @@
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="26"/>
       <c r="G23" s="33">
         <f t="shared" si="0"/>
@@ -2466,9 +2466,9 @@
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="26"/>
       <c r="G24" s="33">
         <f t="shared" si="0"/>
@@ -2479,9 +2479,9 @@
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="26"/>
       <c r="G25" s="33">
         <f>(B25*F25)</f>
@@ -2492,9 +2492,9 @@
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="26"/>
       <c r="G26" s="33">
         <f t="shared" si="0"/>
@@ -2505,9 +2505,9 @@
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33">
         <f t="shared" si="0"/>
@@ -2518,9 +2518,9 @@
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="26"/>
       <c r="G28" s="33">
         <f t="shared" si="0"/>
@@ -2531,9 +2531,9 @@
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="26"/>
       <c r="G29" s="33">
         <f>(B29*F29)</f>
@@ -2544,9 +2544,9 @@
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="32"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="26"/>
       <c r="G30" s="33">
         <f>(B30*F30)</f>
@@ -2557,9 +2557,9 @@
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="32"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="26"/>
       <c r="G31" s="33">
         <f t="shared" si="0"/>
@@ -2570,9 +2570,9 @@
     <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="26"/>
       <c r="G32" s="33">
         <f t="shared" si="0"/>
@@ -2583,9 +2583,9 @@
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="26"/>
       <c r="G33" s="33">
         <f t="shared" si="0"/>
@@ -2596,9 +2596,9 @@
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="26"/>
       <c r="G34" s="33">
         <f t="shared" si="0"/>
@@ -2609,9 +2609,9 @@
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="26"/>
       <c r="G35" s="33">
         <f>(B35*F35)</f>
@@ -2622,9 +2622,9 @@
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="26"/>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
@@ -2635,9 +2635,9 @@
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="26"/>
       <c r="G37" s="33">
         <f>(B37*F37)</f>
@@ -2650,9 +2650,9 @@
         <v>0</v>
       </c>
       <c r="B38" s="32"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="27"/>
       <c r="G38" s="33">
         <f t="shared" si="0"/>
@@ -2663,9 +2663,9 @@
     <row r="39" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="35"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="28"/>
       <c r="G39" s="36">
         <f>(B39*F39)</f>
@@ -2676,9 +2676,9 @@
     <row r="40" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="43"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="44"/>
       <c r="G40" s="45">
         <f>(B40*F40)</f>
@@ -2689,9 +2689,9 @@
     <row r="41" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="38"/>
       <c r="G41" s="39">
         <f>(B41*F41)</f>
@@ -2701,22 +2701,22 @@
     </row>
     <row r="42" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="25"/>
       <c r="G42" s="40"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="41" t="s">
         <v>12</v>
       </c>
@@ -2773,12 +2773,28 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -2791,28 +2807,12 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="72" r:id="rId1"/>
